--- a/simulation_data/one_step_algorithm/1s_error_level_4_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_4_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.97477315743721</v>
+        <v>89.94433162867544</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4194715572531431</v>
+        <v>0.4003947186939151</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.01130490201417</v>
+        <v>89.01275764566786</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4115951631783499</v>
+        <v>0.3856269485914656</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.02377505829573</v>
+        <v>87.92329281354807</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4054397553872904</v>
+        <v>0.3827976848621537</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.96416846276075</v>
+        <v>87.09282166921419</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3742831835754671</v>
+        <v>0.4830561089106611</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.9976914057011</v>
+        <v>86.05147015509408</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4288557585853408</v>
+        <v>0.422433057951349</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.99478602500474</v>
+        <v>85.04345544821828</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4608704356872464</v>
+        <v>0.4528897480815668</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.98933586043357</v>
+        <v>83.98467764756872</v>
       </c>
       <c r="D8" t="n">
-        <v>0.476313505208863</v>
+        <v>0.4697020780543616</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.02682150532117</v>
+        <v>82.89366946488067</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4344885367975975</v>
+        <v>0.465532044899578</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.95497059748655</v>
+        <v>82.00810291335628</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5081168292177388</v>
+        <v>0.446473601936286</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.98907777834788</v>
+        <v>80.94429451363298</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4675002865705341</v>
+        <v>0.4825410655060818</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.99984037833897</v>
+        <v>79.97268243617748</v>
       </c>
       <c r="D12" t="n">
-        <v>0.545026335020368</v>
+        <v>0.4979417401958402</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.9610609326442</v>
+        <v>78.94998382790219</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5163313759604677</v>
+        <v>0.5473936578915746</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.95308967469221</v>
+        <v>77.91744327948209</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4969682803921701</v>
+        <v>0.5222488455526372</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.98425236060329</v>
+        <v>76.94058745340716</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4784244798802866</v>
+        <v>0.490688249187004</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02732663955442</v>
+        <v>75.99597538866892</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5382892647570612</v>
+        <v>0.5295627263295165</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.0092382215969</v>
+        <v>75.00019251783256</v>
       </c>
       <c r="D17" t="n">
-        <v>0.497477506353124</v>
+        <v>0.5541984921594261</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.11365514399762</v>
+        <v>73.92146885071841</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5456793799309329</v>
+        <v>0.5601878039389514</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.15551724845892</v>
+        <v>72.98729157454713</v>
       </c>
       <c r="D19" t="n">
-        <v>0.536937164415882</v>
+        <v>0.6255807990026075</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.9626713011024</v>
+        <v>71.9954298858317</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5859258995014401</v>
+        <v>0.5748249969564636</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.0148429580297</v>
+        <v>71.05759748398374</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5851349594143302</v>
+        <v>0.5856471083427112</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.01534543293918</v>
+        <v>70.02975944120175</v>
       </c>
       <c r="D22" t="n">
-        <v>0.640932878706007</v>
+        <v>0.5805318806033878</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.10474578661541</v>
+        <v>69.01495322434278</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5780545616470053</v>
+        <v>0.6180364367967973</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.98384640371674</v>
+        <v>68.03635217576677</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5577995684641194</v>
+        <v>0.6147236133188009</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.97213745345499</v>
+        <v>66.96791466969221</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5927916013236874</v>
+        <v>0.6017601593292585</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.95971888968576</v>
+        <v>65.9346868583166</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7238483286398731</v>
+        <v>0.6144996291096676</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.09449584478894</v>
+        <v>65.00042432345796</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4862096741631791</v>
+        <v>0.5714728532818448</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.9928489097808</v>
+        <v>64.07167363435551</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6929729767193283</v>
+        <v>0.6776917739430802</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.01062942815425</v>
+        <v>63.05925743298597</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5872219382577094</v>
+        <v>0.6550963014137045</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.01310466187547</v>
+        <v>61.9555437361171</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7130962447910458</v>
+        <v>0.5960337165611599</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.06893551747668</v>
+        <v>60.94548596063473</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6150943506550965</v>
+        <v>0.6939914320614299</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.00690310181099</v>
+        <v>59.90852272037266</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6273417256815071</v>
+        <v>0.713379287141153</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.99373309778959</v>
+        <v>59.00505256626789</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6202031169867293</v>
+        <v>0.6829262121717745</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.87700307983398</v>
+        <v>58.03741176236365</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6737890767791704</v>
+        <v>0.6217018593797805</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.08994716937776</v>
+        <v>56.94821471617771</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6544493669591667</v>
+        <v>0.6196700955594218</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.9802922450057</v>
+        <v>56.11667403302479</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6369435769789639</v>
+        <v>0.6365749265153308</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.90312140740301</v>
+        <v>54.95562655590476</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6466107739914146</v>
+        <v>0.6441096854073037</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.05075763760117</v>
+        <v>54.08451757862004</v>
       </c>
       <c r="D38" t="n">
-        <v>0.696619005142496</v>
+        <v>0.7332474629967956</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.9223665963681</v>
+        <v>53.02182825060357</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7042838285668235</v>
+        <v>0.7821003509204058</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.8960854298379</v>
+        <v>51.9455825526496</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7513060180590523</v>
+        <v>0.8164687851497175</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.87400426458523</v>
+        <v>51.01652027381487</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6861983654655852</v>
+        <v>0.683469702692612</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.91944057419322</v>
+        <v>50.07408376221988</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6696621188980146</v>
+        <v>0.6639061636156398</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.98155615898872</v>
+        <v>48.82105466487565</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6943767267931416</v>
+        <v>0.6694343563164695</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.01815266765327</v>
+        <v>47.98105825486521</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6578831505888064</v>
+        <v>0.7621412020748866</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.99618705990278</v>
+        <v>47.01325469504962</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7632858865405174</v>
+        <v>0.7912664454544163</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.80662821853311</v>
+        <v>45.98888557581393</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8530572541673481</v>
+        <v>0.728961262026728</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.93872845912221</v>
+        <v>45.00299758532177</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8370295025574953</v>
+        <v>0.9108236948687043</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.01890495556777</v>
+        <v>44.02577156172575</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7571434042726805</v>
+        <v>0.8854586366413791</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.91866510296301</v>
+        <v>42.88216934710383</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8750636370811847</v>
+        <v>0.7710855666261719</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.90011970916122</v>
+        <v>42.0631103112751</v>
       </c>
       <c r="D50" t="n">
-        <v>0.780339183582766</v>
+        <v>0.8454991568925228</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.882924707845</v>
+        <v>41.07353206034099</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8658794187419272</v>
+        <v>0.812444935327935</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.00165930237796</v>
+        <v>40.02786046253291</v>
       </c>
       <c r="D52" t="n">
-        <v>0.840288846946457</v>
+        <v>0.8207042693123274</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.16980340561842</v>
+        <v>38.94340958042111</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9206113152706442</v>
+        <v>0.884337347485411</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.17906644025604</v>
+        <v>37.86858815080391</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8096584460421852</v>
+        <v>0.9277455737493978</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.81869174962493</v>
+        <v>37.05888812526027</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9248589719851449</v>
+        <v>0.834337359553699</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.98283356037314</v>
+        <v>35.94265729468515</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8969645946131919</v>
+        <v>0.9692722681384291</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.97505845953872</v>
+        <v>34.95934232169459</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9231995929043683</v>
+        <v>0.9244342235472479</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.06322636125649</v>
+        <v>34.04639154002469</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8918783988081229</v>
+        <v>0.9590676820918592</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.0482514070552</v>
+        <v>32.91525391842499</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9499395849754141</v>
+        <v>0.8498651221100731</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.90112872669238</v>
+        <v>32.09354424339893</v>
       </c>
       <c r="D60" t="n">
-        <v>0.849566296565496</v>
+        <v>0.9408720933026614</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.85260512862843</v>
+        <v>30.98623682035204</v>
       </c>
       <c r="D61" t="n">
-        <v>0.917678834758912</v>
+        <v>0.9190529702580369</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.03067971836164</v>
+        <v>30.09961355977894</v>
       </c>
       <c r="D62" t="n">
-        <v>1.009326886935578</v>
+        <v>0.9425543482971123</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.92485555641288</v>
+        <v>28.89005282414809</v>
       </c>
       <c r="D63" t="n">
-        <v>1.041011360440021</v>
+        <v>0.9539683437697237</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.96996287180482</v>
+        <v>28.05678401550172</v>
       </c>
       <c r="D64" t="n">
-        <v>1.026672551032761</v>
+        <v>0.992838462026094</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.99932250695402</v>
+        <v>27.14321772445151</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9193181678566723</v>
+        <v>0.9980969305223549</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.99309799307682</v>
+        <v>25.84686431543062</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9822402391623427</v>
+        <v>1.088047309499272</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.02943324376492</v>
+        <v>25.00882180825621</v>
       </c>
       <c r="D67" t="n">
-        <v>1.153925683983562</v>
+        <v>0.9603794238638107</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.13605846815332</v>
+        <v>24.08122961640672</v>
       </c>
       <c r="D68" t="n">
-        <v>1.11363694392435</v>
+        <v>0.9143595604432802</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.92396865966199</v>
+        <v>23.06707608018275</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9726945071553054</v>
+        <v>1.036072710571824</v>
       </c>
     </row>
   </sheetData>
